--- a/Bang danh sach cong việc.xlsx
+++ b/Bang danh sach cong việc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Danh sách module</t>
   </si>
@@ -83,12 +83,30 @@
   </si>
   <si>
     <t>Register</t>
+  </si>
+  <si>
+    <t>Độ hoàn thành</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>method login chua lam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,15 +136,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,228 +450,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -660,8 +740,9 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bang danh sach cong việc.xlsx
+++ b/Bang danh sach cong việc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Danh sách module</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>method login chua lam</t>
+  </si>
+  <si>
+    <t>delete vs update ko làm vì cảm thấy ko cần</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,8 +467,8 @@
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="43" customWidth="1"/>
     <col min="10" max="10" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -629,8 +632,17 @@
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
       <c r="E11" s="3"/>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -639,8 +651,14 @@
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
       <c r="E12" s="3"/>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -649,6 +667,7 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
     </row>

--- a/Bang danh sach cong việc.xlsx
+++ b/Bang danh sach cong việc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Danh sách module</t>
   </si>
@@ -83,12 +83,18 @@
   </si>
   <si>
     <t>Register</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>50% giao diện</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,10 +129,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,30 +440,30 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
@@ -474,14 +480,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0.8</v>
       </c>
       <c r="F2" t="s">
@@ -494,7 +500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -502,7 +508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -510,7 +516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -518,7 +524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -526,7 +532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -534,7 +540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -542,7 +548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -550,7 +556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -558,7 +564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -566,7 +572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -574,85 +580,121 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
